--- a/Resources/Pixel_Locations.xlsx
+++ b/Resources/Pixel_Locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pants\IdeaProjects\Mam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pants\IdeaProjects\Mam\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFFB8-6850-4C5E-9FEC-22238D4C18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEAAF0-13DA-44BE-B89B-4CDDB386D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Student Data " sheetId="1" r:id="rId1"/>
@@ -20,39 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>First Round 270</t>
-  </si>
-  <si>
-    <t>Second Round 355</t>
-  </si>
-  <si>
-    <t>Third Round 440</t>
-  </si>
-  <si>
-    <t>Fourth Round   525</t>
-  </si>
-  <si>
-    <t>Fifth Round    710</t>
-  </si>
-  <si>
-    <t>Fifth Round 710</t>
-  </si>
-  <si>
-    <t>Champion   648</t>
-  </si>
-  <si>
-    <t>Fourth Round   810</t>
-  </si>
-  <si>
-    <t>Third Round   895</t>
-  </si>
-  <si>
-    <t>Second Round   980</t>
-  </si>
-  <si>
-    <t>First Round 1065</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>First Round 636</t>
+  </si>
+  <si>
+    <t>WildCard   404</t>
+  </si>
+  <si>
+    <t>Second Round 831</t>
+  </si>
+  <si>
+    <t>Third Round 1033</t>
+  </si>
+  <si>
+    <t>Fourth Round   1233</t>
+  </si>
+  <si>
+    <t>Fifth Round 1433</t>
+  </si>
+  <si>
+    <t>Champion   1502</t>
+  </si>
+  <si>
+    <t>Fifth Round    1671</t>
+  </si>
+  <si>
+    <t>Fourth Round   1900</t>
+  </si>
+  <si>
+    <t>Third Round   2106</t>
+  </si>
+  <si>
+    <t>Second Round   2300</t>
+  </si>
+  <si>
+    <t>First Round 2500</t>
   </si>
 </sst>
 </file>
@@ -404,23 +407,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="12" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -429,13 +433,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -449,166 +453,172 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>381</v>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1508</v>
       </c>
       <c r="F18">
-        <v>481</v>
+        <v>940</v>
       </c>
       <c r="G18">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>984</v>
+        <v>1194</v>
+      </c>
+      <c r="H18">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2539</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Pixel_Locations.xlsx
+++ b/Resources/Pixel_Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pants\IdeaProjects\Mam\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ks4292\InteliJ\Mam\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEAAF0-13DA-44BE-B89B-4CDDB386D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF230A3-1F27-4CD2-AEDE-397DD4A2253F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Student Data " sheetId="1" r:id="rId1"/>
@@ -409,17 +409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="12" width="17.88671875" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,82 +457,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>727</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>884</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>936</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>988</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1093</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1145</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1197</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1508</v>
       </c>
@@ -546,77 +546,77 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1628</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1679</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1731</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1783</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1836</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1888</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1940</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>1993</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2045</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>2097</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2149</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>2202</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2254</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>2306</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2539</v>
       </c>
